--- a/countries_and_population.xlsx
+++ b/countries_and_population.xlsx
@@ -1,15 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kumarmah\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB2790B1-6552-4053-946D-E9D44FBA101B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="330" windowWidth="18720" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="test" sheetId="4" r:id="rId2"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId3"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -1467,8 +1474,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1503,17 +1510,25 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1551,7 +1566,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1585,6 +1600,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1619,9 +1635,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1794,14 +1811,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="A102" sqref="A102:E225"/>
+      <selection activeCell="B112" sqref="B112"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.5703125" bestFit="1" customWidth="1"/>
@@ -1810,7 +1827,7 @@
     <col min="5" max="5" width="21.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1827,7 +1844,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1844,7 +1861,7 @@
         <v>0.19500000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1861,7 +1878,7 @@
         <v>0.17299999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1878,7 +1895,7 @@
         <v>4.5100000000000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1895,7 +1912,7 @@
         <v>3.4500000000000003E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1912,7 +1929,7 @@
         <v>2.7699999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1929,7 +1946,7 @@
         <v>2.4899999999999999E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1946,7 +1963,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1963,7 +1980,7 @@
         <v>2.1700000000000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1980,7 +1997,7 @@
         <v>2.06E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1997,7 +2014,7 @@
         <v>1.8499999999999999E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2014,7 +2031,7 @@
         <v>1.6299999999999999E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2031,7 +2048,7 @@
         <v>1.3599999999999999E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2048,7 +2065,7 @@
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2065,7 +2082,7 @@
         <v>1.1900000000000001E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2082,7 +2099,7 @@
         <v>1.15E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2099,7 +2116,7 @@
         <v>1.15E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2116,7 +2133,7 @@
         <v>1.09E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2133,7 +2150,7 @@
         <v>1.0500000000000001E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2150,7 +2167,7 @@
         <v>9.7999999999999997E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2167,7 +2184,7 @@
         <v>9.7000000000000003E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2184,7 +2201,7 @@
         <v>9.4999999999999998E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2201,7 +2218,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2218,7 +2235,7 @@
         <v>8.8000000000000005E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2235,7 +2252,7 @@
         <v>7.3000000000000001E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2252,7 +2269,7 @@
         <v>7.3000000000000001E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2269,7 +2286,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2286,7 +2303,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2303,7 +2320,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2320,7 +2337,7 @@
         <v>6.6E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2337,7 +2354,7 @@
         <v>6.3E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2354,7 +2371,7 @@
         <v>6.3E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2371,7 +2388,7 @@
         <v>5.7999999999999996E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2388,7 +2405,7 @@
         <v>5.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2405,7 +2422,7 @@
         <v>5.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2422,7 +2439,7 @@
         <v>5.1999999999999998E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2439,7 +2456,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2456,7 +2473,7 @@
         <v>4.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2473,7 +2490,7 @@
         <v>4.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2490,7 +2507,7 @@
         <v>4.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2507,7 +2524,7 @@
         <v>4.3E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2524,7 +2541,7 @@
         <v>4.1999999999999997E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2541,7 +2558,7 @@
         <v>4.1999999999999997E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2558,7 +2575,7 @@
         <v>4.1000000000000003E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2575,7 +2592,7 @@
         <v>4.1000000000000003E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2592,7 +2609,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2609,7 +2626,7 @@
         <v>3.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2626,7 +2643,7 @@
         <v>3.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2643,7 +2660,7 @@
         <v>3.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2660,7 +2677,7 @@
         <v>3.3999999999999998E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2677,7 +2694,7 @@
         <v>3.3E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2694,7 +2711,7 @@
         <v>3.3E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2711,7 +2728,7 @@
         <v>3.3E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2728,7 +2745,7 @@
         <v>3.0999999999999999E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2745,7 +2762,7 @@
         <v>3.0999999999999999E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2762,7 +2779,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2779,7 +2796,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2796,7 +2813,7 @@
         <v>2.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2813,7 +2830,7 @@
         <v>2.8E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2830,7 +2847,7 @@
         <v>2.8E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2847,7 +2864,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2864,7 +2881,7 @@
         <v>2.4099999999999998E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2881,7 +2898,7 @@
         <v>2.3999999999999998E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2898,7 +2915,7 @@
         <v>2.3E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2915,7 +2932,7 @@
         <v>2.3E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2932,7 +2949,7 @@
         <v>2.2000000000000001E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2949,7 +2966,7 @@
         <v>2.0999999999999999E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2966,7 +2983,7 @@
         <v>2.0999999999999999E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2983,7 +3000,7 @@
         <v>2.0999999999999999E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -3000,7 +3017,7 @@
         <v>1.9E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -3017,7 +3034,7 @@
         <v>1.9E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -3034,7 +3051,7 @@
         <v>1.9E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -3051,7 +3068,7 @@
         <v>1.8E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -3068,7 +3085,7 @@
         <v>1.6999999999999999E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -3085,7 +3102,7 @@
         <v>1.6000000000000001E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -3102,7 +3119,7 @@
         <v>1.6000000000000001E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -3119,7 +3136,7 @@
         <v>1.6000000000000001E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -3136,7 +3153,7 @@
         <v>1.5E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -3153,7 +3170,7 @@
         <v>1.5E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -3170,7 +3187,7 @@
         <v>1.5E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -3187,7 +3204,7 @@
         <v>1.5E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -3204,7 +3221,7 @@
         <v>1.5E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -3221,7 +3238,7 @@
         <v>1.5E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -3238,7 +3255,7 @@
         <v>1.5E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -3255,7 +3272,7 @@
         <v>1.5E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -3272,7 +3289,7 @@
         <v>1.4E-3</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -3289,7 +3306,7 @@
         <v>1.4E-3</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -3306,7 +3323,7 @@
         <v>1.4E-3</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -3323,7 +3340,7 @@
         <v>1.4E-3</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -3340,7 +3357,7 @@
         <v>1.4E-3</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -3357,7 +3374,7 @@
         <v>1.2999999999999999E-3</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -3374,7 +3391,7 @@
         <v>1.2999999999999999E-3</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -3391,7 +3408,7 @@
         <v>1.1999999999999999E-3</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -3408,7 +3425,7 @@
         <v>1.1999999999999999E-3</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -3425,7 +3442,7 @@
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -3442,7 +3459,7 @@
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -3459,7 +3476,7 @@
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -3476,7 +3493,7 @@
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -3493,7 +3510,7 @@
         <v>1.0300000000000001E-3</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -3510,7 +3527,7 @@
         <v>1.0200000000000001E-3</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -3533,16 +3550,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70190D1B-2688-4D5B-B59D-C9D073ADD42D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+    <sheetView topLeftCell="A87" workbookViewId="0">
       <selection sqref="A1:E124"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>101</v>
       </c>
@@ -3559,7 +3590,7 @@
         <v>9.7999999999999997E-4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>102</v>
       </c>
@@ -3576,7 +3607,7 @@
         <v>9.5E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>103</v>
       </c>
@@ -3593,7 +3624,7 @@
         <v>9.3999999999999997E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>104</v>
       </c>
@@ -3610,7 +3641,7 @@
         <v>9.3999999999999997E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>105</v>
       </c>
@@ -3627,7 +3658,7 @@
         <v>9.3000000000000005E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>106</v>
       </c>
@@ -3644,7 +3675,7 @@
         <v>8.9999999999999998E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>107</v>
       </c>
@@ -3661,7 +3692,7 @@
         <v>8.4999999999999995E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>108</v>
       </c>
@@ -3678,7 +3709,7 @@
         <v>8.4999999999999995E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>109</v>
       </c>
@@ -3695,7 +3726,7 @@
         <v>8.0000000000000004E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>110</v>
       </c>
@@ -3712,7 +3743,7 @@
         <v>7.9000000000000001E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>111</v>
       </c>
@@ -3729,7 +3760,7 @@
         <v>7.9000000000000001E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>112</v>
       </c>
@@ -3746,7 +3777,7 @@
         <v>7.7999999999999999E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>113</v>
       </c>
@@ -3763,7 +3794,7 @@
         <v>7.6000000000000004E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>114</v>
       </c>
@@ -3780,7 +3811,7 @@
         <v>7.5000000000000002E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>115</v>
       </c>
@@ -3797,7 +3828,7 @@
         <v>7.3999999999999999E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>116</v>
       </c>
@@ -3814,7 +3845,7 @@
         <v>7.2000000000000005E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>117</v>
       </c>
@@ -3831,7 +3862,7 @@
         <v>6.8000000000000005E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>118</v>
       </c>
@@ -3848,7 +3879,7 @@
         <v>6.6E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>119</v>
       </c>
@@ -3865,7 +3896,7 @@
         <v>6.4999999999999997E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>120</v>
       </c>
@@ -3882,7 +3913,7 @@
         <v>6.4000000000000005E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>121</v>
       </c>
@@ -3899,7 +3930,7 @@
         <v>6.4000000000000005E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>122</v>
       </c>
@@ -3916,7 +3947,7 @@
         <v>6.4000000000000005E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>123</v>
       </c>
@@ -3933,7 +3964,7 @@
         <v>6.4000000000000005E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>124</v>
       </c>
@@ -3950,7 +3981,7 @@
         <v>6.2E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>125</v>
       </c>
@@ -3967,7 +3998,7 @@
         <v>5.9999999999999995E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>126</v>
       </c>
@@ -3984,7 +4015,7 @@
         <v>5.8E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>127</v>
       </c>
@@ -4001,7 +4032,7 @@
         <v>5.5000000000000003E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>128</v>
       </c>
@@ -4018,7 +4049,7 @@
         <v>5.5999999999999995E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>129</v>
       </c>
@@ -4035,7 +4066,7 @@
         <v>5.5000000000000003E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>130</v>
       </c>
@@ -4052,7 +4083,7 @@
         <v>5.1999999999999995E-4</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>131</v>
       </c>
@@ -4069,7 +4100,7 @@
         <v>4.8999999999999998E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>132</v>
       </c>
@@ -4086,7 +4117,7 @@
         <v>4.8999999999999998E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>133</v>
       </c>
@@ -4103,7 +4134,7 @@
         <v>4.8000000000000001E-4</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>134</v>
       </c>
@@ -4120,7 +4151,7 @@
         <v>4.6999999999999999E-4</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>135</v>
       </c>
@@ -4137,7 +4168,7 @@
         <v>4.6999999999999999E-4</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>136</v>
       </c>
@@ -4154,7 +4185,7 @@
         <v>4.6000000000000001E-4</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>137</v>
       </c>
@@ -4171,7 +4202,7 @@
         <v>4.4000000000000002E-4</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>138</v>
       </c>
@@ -4188,7 +4219,7 @@
         <v>4.2000000000000002E-4</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>139</v>
       </c>
@@ -4205,7 +4236,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>140</v>
       </c>
@@ -4222,7 +4253,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>141</v>
       </c>
@@ -4239,7 +4270,7 @@
         <v>3.2000000000000003E-4</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>142</v>
       </c>
@@ -4256,7 +4287,7 @@
         <v>3.2000000000000003E-4</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>143</v>
       </c>
@@ -4273,7 +4304,7 @@
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>144</v>
       </c>
@@ -4290,7 +4321,7 @@
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>145</v>
       </c>
@@ -4307,7 +4338,7 @@
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>146</v>
       </c>
@@ -4324,7 +4355,7 @@
         <v>2.5999999999999998E-4</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>147</v>
       </c>
@@ -4341,7 +4372,7 @@
         <v>2.5000000000000001E-4</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>148</v>
       </c>
@@ -4358,7 +4389,7 @@
         <v>2.5000000000000001E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>149</v>
       </c>
@@ -4375,7 +4406,7 @@
         <v>2.4000000000000001E-4</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>150</v>
       </c>
@@ -4392,7 +4423,7 @@
         <v>2.2000000000000001E-4</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>151</v>
       </c>
@@ -4409,7 +4440,7 @@
         <v>1.9000000000000001E-4</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>152</v>
       </c>
@@ -4426,7 +4457,7 @@
         <v>1.9000000000000001E-4</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>153</v>
       </c>
@@ -4443,7 +4474,7 @@
         <v>1.9000000000000001E-4</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>154</v>
       </c>
@@ -4460,7 +4491,7 @@
         <v>1.7000000000000001E-4</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>155</v>
       </c>
@@ -4477,7 +4508,7 @@
         <v>1.7000000000000001E-4</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>156</v>
       </c>
@@ -4494,7 +4525,7 @@
         <v>1.2999999999999999E-4</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>157</v>
       </c>
@@ -4511,7 +4542,7 @@
         <v>1.2E-4</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>158</v>
       </c>
@@ -4528,7 +4559,7 @@
         <v>1.2E-4</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>159</v>
       </c>
@@ -4545,7 +4576,7 @@
         <v>1.2E-4</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>160</v>
       </c>
@@ -4562,7 +4593,7 @@
         <v>1.1E-4</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>161</v>
       </c>
@@ -4579,7 +4610,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>162</v>
       </c>
@@ -4596,7 +4627,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>163</v>
       </c>
@@ -4613,7 +4644,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>164</v>
       </c>
@@ -4630,7 +4661,7 @@
         <v>9.0000000000000006E-5</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>165</v>
       </c>
@@ -4647,7 +4678,7 @@
         <v>8.0000000000000007E-5</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>166</v>
       </c>
@@ -4664,7 +4695,7 @@
         <v>8.0000000000000007E-5</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>167</v>
       </c>
@@ -4681,7 +4712,7 @@
         <v>8.0000000000000007E-5</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>168</v>
       </c>
@@ -4698,7 +4729,7 @@
         <v>8.0000000000000007E-5</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>169</v>
       </c>
@@ -4715,7 +4746,7 @@
         <v>6.9999999999999994E-5</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>170</v>
       </c>
@@ -4732,7 +4763,7 @@
         <v>6.9999999999999994E-5</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>171</v>
       </c>
@@ -4749,7 +4780,7 @@
         <v>6.0000000000000002E-5</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>172</v>
       </c>
@@ -4766,7 +4797,7 @@
         <v>6.0000000000000002E-5</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>173</v>
       </c>
@@ -4783,7 +4814,7 @@
         <v>5.0000000000000002E-5</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>174</v>
       </c>
@@ -4800,7 +4831,7 @@
         <v>5.0000000000000002E-5</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>175</v>
       </c>
@@ -4817,7 +4848,7 @@
         <v>5.0000000000000002E-5</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>176</v>
       </c>
@@ -4834,7 +4865,7 @@
         <v>5.0000000000000002E-5</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>177</v>
       </c>
@@ -4851,7 +4882,7 @@
         <v>4.0000000000000003E-5</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>178</v>
       </c>
@@ -4868,7 +4899,7 @@
         <v>4.0000000000000003E-5</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>179</v>
       </c>
@@ -4885,7 +4916,7 @@
         <v>3.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>180</v>
       </c>
@@ -4902,7 +4933,7 @@
         <v>3.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>181</v>
       </c>
@@ -4919,7 +4950,7 @@
         <v>3.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>182</v>
       </c>
@@ -4936,7 +4967,7 @@
         <v>2.0000000000000002E-5</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>183</v>
       </c>
@@ -4953,7 +4984,7 @@
         <v>2.0000000000000002E-5</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>184</v>
       </c>
@@ -4970,7 +5001,7 @@
         <v>2.0000000000000002E-5</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>185</v>
       </c>
@@ -4987,7 +5018,7 @@
         <v>2.0000000000000002E-5</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>186</v>
       </c>
@@ -5004,7 +5035,7 @@
         <v>2.0000000000000002E-5</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>187</v>
       </c>
@@ -5021,7 +5052,7 @@
         <v>2.0000000000000002E-5</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>188</v>
       </c>
@@ -5038,7 +5069,7 @@
         <v>2.0000000000000002E-5</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>189</v>
       </c>
@@ -5055,7 +5086,7 @@
         <v>2.0000000000000002E-5</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>190</v>
       </c>
@@ -5072,7 +5103,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>191</v>
       </c>
@@ -5089,7 +5120,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>192</v>
       </c>
@@ -5106,7 +5137,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>193</v>
       </c>
@@ -5123,7 +5154,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>194</v>
       </c>
@@ -5140,7 +5171,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>195</v>
       </c>
@@ -5157,7 +5188,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>196</v>
       </c>
@@ -5174,7 +5205,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>197</v>
       </c>
@@ -5191,7 +5222,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>198</v>
       </c>
@@ -5208,7 +5239,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>199</v>
       </c>
@@ -5225,7 +5256,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>200</v>
       </c>
@@ -5242,7 +5273,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>201</v>
       </c>
@@ -5259,7 +5290,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>202</v>
       </c>
@@ -5276,7 +5307,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>203</v>
       </c>
@@ -5293,7 +5324,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>204</v>
       </c>
@@ -5310,7 +5341,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>205</v>
       </c>
@@ -5327,7 +5358,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>206</v>
       </c>
@@ -5344,7 +5375,7 @@
         <v>6.0000000000000002E-6</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>207</v>
       </c>
@@ -5361,7 +5392,7 @@
         <v>5.0000000000000004E-6</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>208</v>
       </c>
@@ -5378,7 +5409,7 @@
         <v>5.0000000000000004E-6</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>209</v>
       </c>
@@ -5395,7 +5426,7 @@
         <v>5.0000000000000004E-6</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>210</v>
       </c>
@@ -5412,7 +5443,7 @@
         <v>5.0000000000000004E-6</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>211</v>
       </c>
@@ -5429,7 +5460,7 @@
         <v>3.9999999999999998E-6</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>212</v>
       </c>
@@ -5446,7 +5477,7 @@
         <v>3.9999999999999998E-6</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>213</v>
       </c>
@@ -5463,7 +5494,7 @@
         <v>3.0000000000000001E-6</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>214</v>
       </c>
@@ -5477,7 +5508,7 @@
         <v>3.0000000000000001E-6</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>215</v>
       </c>
@@ -5494,7 +5525,7 @@
         <v>1.9999999999999999E-6</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>216</v>
       </c>
@@ -5508,7 +5539,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>217</v>
       </c>
@@ -5522,7 +5553,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>218</v>
       </c>
@@ -5536,7 +5567,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>219</v>
       </c>
@@ -5550,7 +5581,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>220</v>
       </c>
@@ -5564,7 +5595,7 @@
         <v>4.9999999999999998E-7</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>221</v>
       </c>
@@ -5578,7 +5609,7 @@
         <v>2.9999999999999999E-7</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>222</v>
       </c>
@@ -5592,7 +5623,7 @@
         <v>2.9999999999999999E-7</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>223</v>
       </c>
@@ -5606,7 +5637,7 @@
         <v>1.9999999999999999E-7</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>224</v>
       </c>
@@ -5625,13 +5656,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
